--- a/数据整理/stocks/A股/科创板/688700-东威科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688700-东威科技.xlsx
@@ -1,90 +1,51 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
-  <workbookPr defaultThemeVersion="124226"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-Q2" sheetId="1" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
+  <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
-  <si>
-    <t>基金代码</t>
-  </si>
-  <si>
-    <t>基金名称</t>
-  </si>
-  <si>
-    <t>基金金额</t>
-  </si>
-  <si>
-    <t>股票总仓位</t>
-  </si>
-  <si>
-    <t>仓位占比</t>
-  </si>
-  <si>
-    <t>持有市值(亿元)</t>
-  </si>
-  <si>
-    <t>仓位排名</t>
-  </si>
-  <si>
-    <t>011815</t>
-  </si>
-  <si>
-    <t>恒越优势精选混合型发起式证券投资基金</t>
-  </si>
-  <si>
-    <t>1.90</t>
-  </si>
-  <si>
-    <t>93.98</t>
-  </si>
-  <si>
-    <t>3.72</t>
-  </si>
-  <si>
-    <t>0.0707</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+  <numFmts count="0"/>
+  <fonts count="3">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <b val="1"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -107,21 +68,97 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -409,63 +446,265 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:H2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
-      <c r="B1" s="1" t="s">
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1">
-        <v>0</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D2" t="s">
-        <v>9</v>
-      </c>
-      <c r="E2" t="s">
-        <v>10</v>
-      </c>
-      <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
-      <c r="H2">
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>011815</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>恒越优势精选混合型发起式证券投资基金</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.98</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0707</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>5</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>213003</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>宝盈策略增长混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>13.71</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>7.76</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.0639</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>213002</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>宝盈泛沿海增长混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>8.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.29</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.6640</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001707</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>诺安高端制造股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>4.58</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688700-东威科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688700-东威科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -707,4 +708,72 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688700-东威科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688700-东威科技.xlsx
@@ -8,7 +8,8 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -716,7 +717,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,17 +728,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -747,14 +768,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>006025</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>诺安优化配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>67.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -763,13 +858,29 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C3" t="n">
+      <c r="C4" t="n">
         <v>1</v>
       </c>
-      <c r="D3" t="n">
+      <c r="D4" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688700-东威科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688700-东威科技.xlsx
@@ -9,7 +9,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -811,7 +812,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -822,17 +823,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -842,14 +863,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
+          <t>506005</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>博时科创板三年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>22.84</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.44</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.8222</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -858,14 +901,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.72</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1915</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>1.77</v>
       </c>
     </row>
     <row r="4">
@@ -874,13 +939,173 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>004784</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>招商稳健优选股票</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.49</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.19</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1563</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>7.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0493</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>4</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C4" t="n">
+      <c r="C5" t="n">
         <v>1</v>
       </c>
-      <c r="D4" t="n">
+      <c r="D5" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688700-东威科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688700-东威科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1020,7 +1021,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1031,17 +1032,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -1051,14 +1072,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>4</v>
-      </c>
-      <c r="D2" t="n">
-        <v>1.22</v>
+          <t>519732</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>交银定期支付双息平衡混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>42.91</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>64.07</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.7509</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
       </c>
     </row>
     <row r="3">
@@ -1067,14 +1110,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>2.89</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1468</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -1083,14 +1148,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>3</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.77</v>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>83.51</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0361</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
@@ -1099,13 +1186,303 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>015143</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0296</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>23.27</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0278</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0109</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>015144</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中欧智能制造混合C</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>64.37</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.29</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0089</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>39.78</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>8</v>
+      </c>
+      <c r="D2" t="n">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>4</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>1</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>1</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688700-东威科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688700-东威科技.xlsx
@@ -7,11 +7,12 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -455,7 +456,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -486,14 +487,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D2" t="n">
-        <v>1.02</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="3">
@@ -502,14 +503,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D3" t="n">
-        <v>1.22</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="4">
@@ -518,14 +519,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="5">
@@ -534,14 +535,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D5" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -550,13 +551,29 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>1</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -566,6 +583,2722 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H71"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>000828</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>50.23</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.5923</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>014023</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>泰达宏利景气领航两年持有混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>14.70</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5204</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>014292</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>13.38</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4509</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>010166</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>招商兴和优选1年持有期混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>10.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4119</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>011450</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>招商企业优选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>10.51</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.4046</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>012800</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>泰达宏利转型机遇股票C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>8.71</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.68</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2761</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002770</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.2126</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004745</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛创新驱动灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>6.27</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.19</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2057</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.92</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.1805</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>002771</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>安信新回报灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>88.08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.1747</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>005983</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.1196</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>217020</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商安达灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.97</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.15</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.04</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0993</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>014807</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.90</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>506009</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>国泰科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0832</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>014541</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>华安新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0786</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>014380</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票C</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.05</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0759</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>010033</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>安信成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>1.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0730</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>002455</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>民生加银鑫喜灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.04</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>22.41</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0705</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>011506</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>建信高端装备股票A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0671</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>003292</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>嘉实优势成长灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.15</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>84.39</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0649</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>9.40</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0630</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>530011</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>建信内生动力混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.71</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>70.74</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>014686</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>招商核心装备混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0570</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>015071</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0556</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0509</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.13</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>70.13</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>4.12</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0466</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>78.59</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>2.67</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0449</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中银成长优选股票A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0440</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011507</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>建信高端装备股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>005342</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>000530</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.09</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0295</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>005341</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长安裕泰灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.89</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0268</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009140</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>永赢竞争力精选混合</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.06</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0248</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>014687</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>招商核心装备混合C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.56</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011765</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>011451</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>招商企业优选混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>90.44</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0200</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.75</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0141</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>740001</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0136</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>012498</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.77</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0132</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011766</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>兴银高端制造混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0131</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>001537</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>中加改革红利灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.28</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0124</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014829</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>010034</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>安信成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>88.80</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>002417</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>招商丰盛稳定增长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.48</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>007527</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010564</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>民生加银瑞利混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>30.16</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0090</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014293</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>91.87</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0088</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>014808</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>泰达宏利景气智选18个月持有混合C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>004211</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>金鹰周期优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>76.70</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>519172</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014542</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华安新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>84.17</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>6.78</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007528</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>融通量化多策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>519173</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>浦银安盛睿智精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>79.23</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015072</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>74.01</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.10</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014830</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>000804</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>000926</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0037</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>014835</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长盛安盈混合C</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.41</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>012499</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>汇添富中证500基本面增强指数C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>1.71</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>006844</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中信建投稳利混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>38.27</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005146</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>兴银丰润灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>92.81</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>016579</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长安宏观策略混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.99</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.54</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>014937</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>上投摩根核心精选股票C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>86.89</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.99</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>013407</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长盛安盈混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>25.99</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>004676</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>中信建投睿信灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>016282</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>建信内生动力混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>70.74</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0006</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>014455</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>中银成长优选股票C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>83.17</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.77</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0003</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -925,7 +3658,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1133,7 +3866,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1227,7 +3960,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -1397,7 +4130,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688700-东威科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688700-东威科技.xlsx
@@ -7,12 +7,13 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,7 +457,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,14 +488,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="D2" t="n">
-        <v>6.32</v>
+        <v>8.35</v>
       </c>
     </row>
     <row r="3">
@@ -503,14 +504,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>8</v>
+        <v>70</v>
       </c>
       <c r="D3" t="n">
-        <v>1.02</v>
+        <v>6.32</v>
       </c>
     </row>
     <row r="4">
@@ -519,14 +520,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="D4" t="n">
-        <v>1.22</v>
+        <v>1.02</v>
       </c>
     </row>
     <row r="5">
@@ -535,14 +536,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
-        <v>0</v>
+        <v>1.22</v>
       </c>
     </row>
     <row r="6">
@@ -551,14 +552,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>1.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -567,13 +568,29 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>3</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.77</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2021-Q2</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>1</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.07000000000000001</v>
       </c>
     </row>
@@ -583,6 +600,2864 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H75"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>012748</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>21.45</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.4243</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>460001</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>华泰柏瑞盛世中国混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>17.90</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>89.66</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>7.49</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.3407</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>006348</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>银华盛利混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>11.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.4110</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>540002</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇丰晋信龙腾混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>9.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.84</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.4105</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>160813</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>长盛同盛成长优选灵活配置混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>11.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.3896</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>014292</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>13.07</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.3581</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010885</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>10.16</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3200</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519039</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长盛同德主题混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>9.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.2995</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001542</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>国泰互联网+股票</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>8.50</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>92.88</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.2754</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007306</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.2285</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007307</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>华泰柏瑞基本面智选混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.72</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.16</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>5.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2146</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010345</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2125</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>012749</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>华泰柏瑞远见智选混合C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>6.64</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.1713</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>000742</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.1635</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011851</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.23</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1525</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009800</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>4.46</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1516</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>015071</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>2.46</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1501</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>460005</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>8.35</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1336</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>010346</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华泰柏瑞成长智选混合C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>94.67</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.97</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>014131</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞聚优智选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1113</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>000328</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0818</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005967</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>鹏华创新驱动混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>5.38</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0785</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010155</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0746</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>005819</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>2.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0721</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001601</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>1.02</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0715</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>010912</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>2.13</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0694</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>580006</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>东吴新经济混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>1.16</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0676</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>014686</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>招商核心装备混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.90</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>506009</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国泰科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>2.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.42</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0636</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>014541</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>华安新能源主题混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0602</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>015684</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>银华盛利混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.68</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>86.13</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0585</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>007305</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>国联安新科技混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.47</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>77.63</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0504</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>011852</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>天弘先进制造混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>84.28</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0458</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>014885</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长盛匠心研究混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>62.25</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009379</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中银成长优选股票A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.51</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0423</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001728</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>银华战略新兴灵活配置定期开放混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>91.78</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0401</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>010886</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长盛优势企业精选混合C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>83.45</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0362</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>014886</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>长盛匠心研究混合C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.95</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>62.25</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0299</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010642</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>农银汇理瑞祥一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2.48</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>014687</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>招商核心装备混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.32</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.35</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>012617</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>东吴新经济混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.15</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.83</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0245</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>015585</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>国泰优势行业混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>90.14</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0225</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>015072</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>鑫元专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>70.69</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>6.10</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0152</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>010666</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>博时高端装备混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0150</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>010665</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>博时高端装备混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>86.94</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>4.18</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014829</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>014132</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>华泰柏瑞聚优智选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>94.11</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>010156</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>长盛核心成长混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>83.35</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.12</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>009801</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长盛制造精选混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>84.19</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>005949</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0080</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>002409</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0075</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>007439</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>东海科技动力混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0073</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>014293</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>嘉实产业领先混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>92.57</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0071</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>014830</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>诺德新能源汽车混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>93.39</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>7.19</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0065</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>007463</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东海科技动力混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.16</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>83.30</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0061</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>014542</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>华安新能源主题混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.05</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>5.52</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>015828</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>永赢新能源智选混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014989</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>国泰新经济灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.40</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014835</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长盛安盈混合C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.36</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010913</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>国泰成长价值混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>86.46</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.26</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>016380</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>华宝专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>014455</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中银成长优选股票C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>83.26</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.80</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011361</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0027</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>69.18</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>013407</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长盛安盈混合A</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>32.98</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>1.15</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>015829</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>永赢新能源智选混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>94.23</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0010</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>69.18</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>010037</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞价值增长混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>93.55</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>1.60</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>016381</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>华宝专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>90.16</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>3.52</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>015074</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>上投摩根转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="G71" t="n">
+        <v>0</v>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>005950</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>鑫元行业轮动灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>67.42</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>4.42</t>
+        </is>
+      </c>
+      <c r="G72" t="n">
+        <v>0</v>
+      </c>
+      <c r="H72" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001602</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>鑫元鑫新收益灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>78.41</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>7.01</t>
+        </is>
+      </c>
+      <c r="G73" t="n">
+        <v>0</v>
+      </c>
+      <c r="H73" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>011362</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华夏博锐一年持有混合（MOM）C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>26.52</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.42</t>
+        </is>
+      </c>
+      <c r="G74" t="n">
+        <v>0</v>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>002410</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>华夏新活力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>77.58</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="G75" t="n">
+        <v>0</v>
+      </c>
+      <c r="H75" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3298,7 +6173,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3658,7 +6533,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3866,7 +6741,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -3960,7 +6835,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4130,7 +7005,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
